--- a/charts/情感型聊天机器人调查问卷 (回應).xlsx
+++ b/charts/情感型聊天机器人调查问卷 (回應).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="13065"/>
+    <workbookView windowWidth="24330" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="表單回應 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="107">
   <si>
     <t>時間戳記</t>
   </si>
@@ -320,7 +320,13 @@
   </si>
   <si>
     <r>
-      <t>模型</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
     </r>
     <r>
       <rPr>
@@ -334,7 +340,13 @@
   </si>
   <si>
     <r>
-      <t>模型</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
     </r>
     <r>
       <rPr>
@@ -347,6 +359,12 @@
     </r>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>TOTAL_POSITIVE_SUM</t>
   </si>
   <si>
@@ -359,8 +377,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -390,10 +408,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,6 +420,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,14 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -437,7 +455,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,14 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -490,6 +500,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,14 +536,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -526,11 +544,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -543,13 +561,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,31 +627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,31 +657,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +705,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,79 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,17 +755,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,22 +805,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,40 +852,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,10 +870,10 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,121 +882,121 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>模型1</c:v>
+                  <c:v>M1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1141,7 +1159,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>模型2</c:v>
+                  <c:v>M2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1394,7 +1412,313 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct30">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="accent2"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'表單回應 1'!$BN$33:$BN$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'表單回應 1'!$BO$33:$BO$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>233.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>366.333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="70625273"/>
+        <c:axId val="168738618"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70625273"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168738618"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168738618"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70625273"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1937,20 +2261,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1958,12 +2785,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="89058750" y="2165350"/>
+        <a:off x="87810975" y="1555750"/>
+        <a:ext cx="4572000" cy="2781300"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="93506925" y="657225"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2235,9 +3092,9 @@
   <dimension ref="A1:BQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BQ33" sqref="BQ33"/>
+      <selection pane="bottomLeft" activeCell="BQ38" sqref="BQ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -6500,7 +7357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" ht="12.75" spans="1:69">
       <c r="A24" s="1">
         <v>43530.6369970949</v>
       </c>
@@ -6694,7 +7551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" ht="12.75" spans="1:69">
+    <row r="25" spans="1:69">
       <c r="A25" s="1">
         <v>43530.6634074884</v>
       </c>
@@ -6891,7 +7748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" ht="12.75" spans="1:69">
+    <row r="26" spans="1:69">
       <c r="A26" s="1">
         <v>43530.675</v>
       </c>
@@ -8013,22 +8870,36 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" ht="12.75" spans="2:2">
+    <row r="32" spans="2:2">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" customHeight="1" spans="69:69">
+    <row r="33" customHeight="1" spans="66:69">
+      <c r="BN33" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO33">
+        <f>701/3</f>
+        <v>233.666666666667</v>
+      </c>
       <c r="BQ33">
         <v>1099</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="69:69">
+    <row r="34" customHeight="1" spans="66:69">
+      <c r="BN34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO34">
+        <f>1099/3</f>
+        <v>366.333333333333</v>
+      </c>
       <c r="BQ34">
         <v>1800</v>
       </c>
     </row>
-    <row r="38" spans="62:65">
+    <row r="38" ht="12.75" spans="62:65">
       <c r="BJ38" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BK38" s="2" t="s">
         <v>98</v>
@@ -8040,9 +8911,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:65">
+    <row r="39" ht="12.75" spans="1:65">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B39">
         <f t="shared" ref="B39:D39" si="0">COUNTIF(B2:B38,"一路顺风 , 保护 好 自己 [ 鼓掌 ]")</f>
@@ -8301,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="62:65">
+    <row r="40" ht="12.75" spans="62:65">
       <c r="BJ40" s="2">
         <f>1099/1800</f>
         <v>0.610555555555556</v>

--- a/charts/情感型聊天机器人调查问卷 (回應).xlsx
+++ b/charts/情感型聊天机器人调查问卷 (回應).xlsx
@@ -376,10 +376,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
@@ -409,61 +409,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +432,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,14 +521,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -522,31 +531,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +573,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,13 +621,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,31 +675,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,109 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,11 +755,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,6 +808,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,199 +852,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,13 +1138,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>255</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199</c:v>
+                  <c:v>33.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>247</c:v>
+                  <c:v>41.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,13 +1208,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>345</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>401</c:v>
+                  <c:v>66.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353</c:v>
+                  <c:v>58.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,10 +1508,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>233.666666666667</c:v>
+                  <c:v>38.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>366.333333333333</c:v>
+                  <c:v>61.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,7 +3094,7 @@
     <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BQ38" sqref="BQ38"/>
+      <selection pane="bottomLeft" activeCell="BK35" sqref="BK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -7739,13 +7739,13 @@
         <v>101</v>
       </c>
       <c r="BO25">
-        <v>255</v>
+        <v>42.5</v>
       </c>
       <c r="BP25">
-        <v>199</v>
+        <v>33.16</v>
       </c>
       <c r="BQ25">
-        <v>247</v>
+        <v>41.16</v>
       </c>
     </row>
     <row r="26" spans="1:69">
@@ -7936,13 +7936,13 @@
         <v>102</v>
       </c>
       <c r="BO26">
-        <v>345</v>
+        <v>57.5</v>
       </c>
       <c r="BP26">
-        <v>401</v>
+        <v>66.83</v>
       </c>
       <c r="BQ26">
-        <v>353</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="27" ht="12.75" spans="1:61">
@@ -8870,7 +8870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" ht="12.75" spans="2:2">
       <c r="B32" s="2"/>
     </row>
     <row r="33" customHeight="1" spans="66:69">
@@ -8878,8 +8878,7 @@
         <v>103</v>
       </c>
       <c r="BO33">
-        <f>701/3</f>
-        <v>233.666666666667</v>
+        <v>38.95</v>
       </c>
       <c r="BQ33">
         <v>1099</v>
@@ -8890,8 +8889,7 @@
         <v>104</v>
       </c>
       <c r="BO34">
-        <f>1099/3</f>
-        <v>366.333333333333</v>
+        <v>61.05</v>
       </c>
       <c r="BQ34">
         <v>1800</v>
